--- a/mobi_client/mobi_client/mobi_config/excel/997_角色表情口型对应关系表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/997_角色表情口型对应关系表.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="315">
   <si>
     <t>ID</t>
   </si>
@@ -304,9 +304,24 @@
     <t>凯瑟琳_媚眼_01</t>
   </si>
   <si>
+    <t>凯瑟琳_威慑_01</t>
+  </si>
+  <si>
+    <t>凯瑟琳_威慑_说话_循环_01</t>
+  </si>
+  <si>
+    <t>凯瑟琳_威慑_02</t>
+  </si>
+  <si>
+    <t>凯瑟琳_威慑_说话_循环_02</t>
+  </si>
+  <si>
     <t>凯瑟琳_享受_01</t>
   </si>
   <si>
+    <t>凯瑟琳_享受_说话_循环_01</t>
+  </si>
+  <si>
     <t>聂总_待机_01</t>
   </si>
   <si>
@@ -397,12 +412,18 @@
     <t>涂凌_打字_01</t>
   </si>
   <si>
+    <t>涂凌_打字_说话_循环_01</t>
+  </si>
+  <si>
     <t>涂凌_憋气_02</t>
   </si>
   <si>
     <t>涂凌_惊恐_01</t>
   </si>
   <si>
+    <t>涂凌_惊恐_说话_循环_01</t>
+  </si>
+  <si>
     <t>黄权_待机_01</t>
   </si>
   <si>
@@ -496,33 +517,105 @@
     <t>土山奥_待机_说话_循环_01</t>
   </si>
   <si>
+    <t>土山奥_待机_02</t>
+  </si>
+  <si>
+    <t>土山奥_待机_说话_循环_02</t>
+  </si>
+  <si>
     <t>土山奥_平静_01</t>
   </si>
   <si>
+    <t>土山奥_平静_说话_循环_01</t>
+  </si>
+  <si>
     <t>土山奥_开心_01</t>
   </si>
   <si>
+    <t>土山奥_开心_说话_循环_01</t>
+  </si>
+  <si>
     <t>土山奥_思考_01</t>
   </si>
   <si>
+    <t>土山奥_思考_说话_循环_01</t>
+  </si>
+  <si>
     <t>土山奥_惊讶_01</t>
   </si>
   <si>
+    <t>土山奥_惊讶_说话_循环_01</t>
+  </si>
+  <si>
     <t>土山奥_紧张_01</t>
   </si>
   <si>
     <t>土山奥_无聊_01</t>
   </si>
   <si>
+    <t>土山奥_无聊_说话_循环_01</t>
+  </si>
+  <si>
     <t>土山奥_忧伤_01</t>
   </si>
   <si>
+    <t>土山奥_忧伤_说话_循环_01</t>
+  </si>
+  <si>
     <t>土山奥_生气_01</t>
   </si>
   <si>
+    <t>土山奥_生气_说话_循环_01</t>
+  </si>
+  <si>
     <t>土山奥_邪恶_01</t>
   </si>
   <si>
+    <t>土山奥_邪恶_说话_循环_01</t>
+  </si>
+  <si>
+    <t>土山奥_行礼_01</t>
+  </si>
+  <si>
+    <t>土山奥_行礼_说话_循环_01</t>
+  </si>
+  <si>
+    <t>土山奥_无奈_01</t>
+  </si>
+  <si>
+    <t>土山奥_无奈_说话_循环_01</t>
+  </si>
+  <si>
+    <t>土山奥_威胁_01</t>
+  </si>
+  <si>
+    <t>土山奥_威胁_说话_循环_01</t>
+  </si>
+  <si>
+    <t>土山奥_伤心_01</t>
+  </si>
+  <si>
+    <t>土山奥_伤心_说话_循环_01</t>
+  </si>
+  <si>
+    <t>土山奥_坏笑_01</t>
+  </si>
+  <si>
+    <t>土山奥_坏笑_说话_循环_01</t>
+  </si>
+  <si>
+    <t>土山奥_愤怒_01</t>
+  </si>
+  <si>
+    <t>土山奥_愤怒_说话_循环_01</t>
+  </si>
+  <si>
+    <t>土山奥_打住_01</t>
+  </si>
+  <si>
+    <t>土山奥_打住_说话_循环_01</t>
+  </si>
+  <si>
     <t>npc标准男01_待机_01</t>
   </si>
   <si>
@@ -583,10 +676,313 @@
     <t>M_A_N_N_待机_说话_循环_01</t>
   </si>
   <si>
+    <t>M_A_N_N_愤怒_01</t>
+  </si>
+  <si>
+    <t>M_A_N_N_愤怒_说话_循环_01</t>
+  </si>
+  <si>
+    <t>M_A_N_N_紧张_01</t>
+  </si>
+  <si>
+    <t>M_A_N_N_紧张_说话_循环_01</t>
+  </si>
+  <si>
+    <t>M_A_N_N_惊讶_01</t>
+  </si>
+  <si>
+    <t>M_A_N_N_惊讶_说话_循环_01</t>
+  </si>
+  <si>
+    <t>M_A_N_N_开心_01</t>
+  </si>
+  <si>
+    <t>M_A_N_N_开心_说话_循环_01</t>
+  </si>
+  <si>
+    <t>M_A_N_N_质问_01</t>
+  </si>
+  <si>
+    <t>M_A_N_N_质问_说话_循环_01</t>
+  </si>
+  <si>
     <t>F_A_N_N_待机_01</t>
   </si>
   <si>
     <t>F_A_N_N_待机_说话_循环_01</t>
+  </si>
+  <si>
+    <t>F_A_N_N_愤怒_01</t>
+  </si>
+  <si>
+    <t>F_A_N_N_愤怒_说话_循环_01</t>
+  </si>
+  <si>
+    <t>F_A_N_N_紧张_01</t>
+  </si>
+  <si>
+    <t>F_A_N_N_紧张_说话_循环_01</t>
+  </si>
+  <si>
+    <t>F_A_N_N_惊讶_01</t>
+  </si>
+  <si>
+    <t>F_A_N_N_惊讶_说话_循环_01</t>
+  </si>
+  <si>
+    <t>F_A_N_N_开心_01</t>
+  </si>
+  <si>
+    <t>F_A_N_N_开心_说话_循环_01</t>
+  </si>
+  <si>
+    <t>F_A_N_N_质问_01</t>
+  </si>
+  <si>
+    <t>F_A_N_N_质问_说话_循环_01</t>
+  </si>
+  <si>
+    <t>白秀竹_待机_01</t>
+  </si>
+  <si>
+    <t>白秀竹_待机_说话_循环_01</t>
+  </si>
+  <si>
+    <t>白秀竹_得意_01</t>
+  </si>
+  <si>
+    <t>白秀竹_得意_说话_循环_01</t>
+  </si>
+  <si>
+    <t>白秀竹_愤怒_01</t>
+  </si>
+  <si>
+    <t>白秀竹_愤怒_说话_循环_01</t>
+  </si>
+  <si>
+    <t>白秀竹_紧张_01</t>
+  </si>
+  <si>
+    <t>白秀竹_紧张_说话_循环_01</t>
+  </si>
+  <si>
+    <t>白秀竹_紧张_02</t>
+  </si>
+  <si>
+    <t>白秀竹_紧张_说话_循环_02</t>
+  </si>
+  <si>
+    <t>白秀竹_惊讶_01</t>
+  </si>
+  <si>
+    <t>白秀竹_惊讶_说话_循环_01</t>
+  </si>
+  <si>
+    <t>白秀竹_惊讶_02</t>
+  </si>
+  <si>
+    <t>白秀竹_惊讶_说话_循环_02</t>
+  </si>
+  <si>
+    <t>白秀竹_开心_01</t>
+  </si>
+  <si>
+    <t>白秀竹_开心_说话_循环_01</t>
+  </si>
+  <si>
+    <t>白秀竹_恐惧_01</t>
+  </si>
+  <si>
+    <t>白秀竹_恐惧_说话_循环_01</t>
+  </si>
+  <si>
+    <t>白秀竹_录像_01</t>
+  </si>
+  <si>
+    <t>白秀竹_录像_说话_循环_01</t>
+  </si>
+  <si>
+    <t>白秀竹_录像_02</t>
+  </si>
+  <si>
+    <t>白秀竹_录像_说话_循环_02</t>
+  </si>
+  <si>
+    <t>白秀竹_请求_01</t>
+  </si>
+  <si>
+    <t>白秀竹_请求_说话_循环_01</t>
+  </si>
+  <si>
+    <t>白秀竹_请求_02</t>
+  </si>
+  <si>
+    <t>白秀竹_请求_说话_循环_02</t>
+  </si>
+  <si>
+    <t>白秀竹_思考_01</t>
+  </si>
+  <si>
+    <t>白秀竹_思考_说话_循环_01</t>
+  </si>
+  <si>
+    <t>白秀竹_思考_02</t>
+  </si>
+  <si>
+    <t>白秀竹_思考_说话_循环_02</t>
+  </si>
+  <si>
+    <t>白秀竹_威胁_01</t>
+  </si>
+  <si>
+    <t>白秀竹_威胁_说话_循环_01</t>
+  </si>
+  <si>
+    <t>白秀竹_威胁_02</t>
+  </si>
+  <si>
+    <t>白秀竹_威胁_说话_循环_02</t>
+  </si>
+  <si>
+    <t>白秀竹_侦查_01</t>
+  </si>
+  <si>
+    <t>白秀竹_侦查_说话_循环_01</t>
+  </si>
+  <si>
+    <t>白秀竹_侦查_02</t>
+  </si>
+  <si>
+    <t>白秀竹_侦查_说话_循环_02</t>
+  </si>
+  <si>
+    <t>白秀竹_侦查_03</t>
+  </si>
+  <si>
+    <t>白秀竹_侦查_说话_循环_03</t>
+  </si>
+  <si>
+    <t>白秀竹_侦查_04</t>
+  </si>
+  <si>
+    <t>白秀竹_侦查_说话_循环_04</t>
+  </si>
+  <si>
+    <t>白秀竹_装傻_01</t>
+  </si>
+  <si>
+    <t>白秀竹_装傻_说话_循环_01</t>
+  </si>
+  <si>
+    <t>冰酒_待机_01</t>
+  </si>
+  <si>
+    <t>冰酒_待机_说话_循环_01</t>
+  </si>
+  <si>
+    <t>冰酒_待机_02</t>
+  </si>
+  <si>
+    <t>冰酒_待机_说话_循环_02</t>
+  </si>
+  <si>
+    <t>冰酒_出棋_01</t>
+  </si>
+  <si>
+    <t>冰酒_出棋_说话_循环_01</t>
+  </si>
+  <si>
+    <t>冰酒_打响指_01</t>
+  </si>
+  <si>
+    <t>冰酒_打响指_说话_循环_01</t>
+  </si>
+  <si>
+    <t>冰酒_将军_01</t>
+  </si>
+  <si>
+    <t>冰酒_将军_说话_循环_01</t>
+  </si>
+  <si>
+    <t>冰酒_将军_02</t>
+  </si>
+  <si>
+    <t>冰酒_将军_说话_循环_02</t>
+  </si>
+  <si>
+    <t>冰酒_将军起手_01</t>
+  </si>
+  <si>
+    <t>冰酒_将军起手_说话_循环_01</t>
+  </si>
+  <si>
+    <t>冰酒_将军起手_02</t>
+  </si>
+  <si>
+    <t>冰酒_将军起手_说话_循环_02</t>
+  </si>
+  <si>
+    <t>冰酒_紧张_01</t>
+  </si>
+  <si>
+    <t>冰酒_紧张_说话_循环_01</t>
+  </si>
+  <si>
+    <t>冰酒_开心_01</t>
+  </si>
+  <si>
+    <t>冰酒_开心_说话_循环_01</t>
+  </si>
+  <si>
+    <t>冰酒_思考_01</t>
+  </si>
+  <si>
+    <t>冰酒_思考_说话_循环_01</t>
+  </si>
+  <si>
+    <t>冰酒_惊讶_01</t>
+  </si>
+  <si>
+    <t>冰酒_惊讶_说话_循环_01</t>
+  </si>
+  <si>
+    <t>冰酒_思考打响指_01</t>
+  </si>
+  <si>
+    <t>冰酒_思考打响指_说话_循环_01</t>
+  </si>
+  <si>
+    <t>冰酒_挑衅_01</t>
+  </si>
+  <si>
+    <t>冰酒_挑衅_说话_循环_01</t>
+  </si>
+  <si>
+    <t>冰酒_推算_01</t>
+  </si>
+  <si>
+    <t>冰酒_推算_说话_循环_01</t>
+  </si>
+  <si>
+    <t>冰酒_推算_02</t>
+  </si>
+  <si>
+    <t>冰酒_推算_说话_循环_02</t>
+  </si>
+  <si>
+    <t>冰酒_震惊_01</t>
+  </si>
+  <si>
+    <t>冰酒_震惊_说话_循环_01</t>
+  </si>
+  <si>
+    <t>冰酒_装傻_01</t>
+  </si>
+  <si>
+    <t>冰酒_装傻_说话_循环_01</t>
+  </si>
+  <si>
+    <t>冰酒_严肃_01</t>
   </si>
 </sst>
 </file>
@@ -1572,10 +1968,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C149"/>
+  <dimension ref="A1:C213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="G176" sqref="G176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -2228,7 +2624,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:3">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2236,11 +2632,20 @@
       <c r="B58" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="C58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>56</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2249,22 +2654,16 @@
         <v>57</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C60" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>58</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C61" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2273,10 +2672,10 @@
         <v>59</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C62" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2285,19 +2684,22 @@
         <v>60</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2306,22 +2708,19 @@
         <v>62</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C65" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C66" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2330,10 +2729,10 @@
         <v>64</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C67" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2342,484 +2741,495 @@
         <v>65</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C68" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A69:A79" si="1">ROW()-3</f>
         <v>66</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C69" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>67</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B71" t="s">
-        <v>106</v>
+      <c r="B71" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="C71" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
       <c r="A72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>69</v>
-      </c>
-      <c r="B72" t="s">
-        <v>108</v>
-      </c>
-      <c r="C72" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="B73" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>110</v>
+      <c r="B74" t="s">
+        <v>113</v>
+      </c>
+      <c r="C74" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C75" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>114</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C76" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C77" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78">
-        <f t="shared" ref="A78:A84" si="1">ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>117</v>
+      </c>
+      <c r="C78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>118</v>
+      </c>
+      <c r="C79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A80:A86" si="2">ROW()-3</f>
         <v>77</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C80" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C81" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C82" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="83" customFormat="1" spans="1:3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C83" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="84" customFormat="1" spans="1:3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C84" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" customFormat="1" spans="1:3">
       <c r="A85">
-        <f t="shared" ref="A85:A112" si="2">ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="B85" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" customFormat="1" spans="1:3">
       <c r="A86">
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="B86" t="s">
-        <v>121</v>
+      <c r="B86" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="C86" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
       <c r="A87">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A87:A114" si="3">ROW()-3</f>
         <v>84</v>
-      </c>
-      <c r="B87" t="s">
-        <v>123</v>
-      </c>
-      <c r="C87" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C88" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C89" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C90" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>132</v>
+      </c>
+      <c r="C91" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>133</v>
+      </c>
+      <c r="C92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>129</v>
-      </c>
-      <c r="C93" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>130</v>
-      </c>
-      <c r="C94" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C95" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
+        <v>137</v>
+      </c>
+      <c r="C96" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>94</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="B97" t="s">
+        <v>138</v>
+      </c>
+      <c r="C97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>133</v>
-      </c>
-      <c r="C98" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
       <c r="A99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>96</v>
-      </c>
-      <c r="B99" t="s">
-        <v>135</v>
-      </c>
-      <c r="C99" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C100" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C101" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C102" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C103" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C104" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="B105" t="s">
+        <v>146</v>
+      </c>
+      <c r="C105" t="s">
         <v>141</v>
       </c>
-      <c r="C105" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>142</v>
+        <v>147</v>
+      </c>
+      <c r="C106" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C107" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C109" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="B110" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="B111" t="s">
+        <v>152</v>
+      </c>
+      <c r="C111" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
       <c r="A112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>109</v>
       </c>
-      <c r="C112" s="4"/>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <f t="shared" ref="A113:A121" si="3">ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
     </row>
@@ -2828,95 +3238,84 @@
         <f t="shared" si="3"/>
         <v>111</v>
       </c>
-      <c r="B114" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="C114" s="4"/>
+    </row>
+    <row r="115" spans="1:1">
       <c r="A115">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A115:A124" si="4">ROW()-3</f>
         <v>112</v>
       </c>
-      <c r="B115" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>113</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="B116" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>114</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="B117" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
       <c r="A118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>115</v>
       </c>
-      <c r="B118" t="s">
-        <v>150</v>
-      </c>
-      <c r="C118" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+    </row>
+    <row r="119" spans="1:1">
       <c r="A119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>116</v>
-      </c>
-      <c r="B119" t="s">
-        <v>152</v>
-      </c>
-      <c r="C119" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C120" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C121" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <f t="shared" ref="A122:A131" si="4">ROW()-3</f>
+        <f t="shared" si="4"/>
         <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C122" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2925,10 +3324,10 @@
         <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C123" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2937,100 +3336,118 @@
         <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C124" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A125:A134" si="5">ROW()-3</f>
         <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C125" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C126" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C127" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>125</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
+      <c r="B128" t="s">
+        <v>172</v>
+      </c>
+      <c r="C128" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>126</v>
+      </c>
+      <c r="B129" t="s">
+        <v>174</v>
+      </c>
+      <c r="C129" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C130" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C131" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <f t="shared" ref="A132:A142" si="5">ROW()-3</f>
+        <f t="shared" si="5"/>
         <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C132" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133">
         <f t="shared" si="5"/>
         <v>130</v>
+      </c>
+      <c r="B133" t="s">
+        <v>182</v>
+      </c>
+      <c r="C133" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3039,142 +3456,874 @@
         <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="C134" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="A135:A142" si="6">ROW()-3</f>
         <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="C135" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>133</v>
       </c>
       <c r="B136" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C136" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>134</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="B137" t="s">
+        <v>190</v>
+      </c>
+      <c r="C137" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
       <c r="A138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>135</v>
       </c>
-      <c r="B138" t="s">
-        <v>173</v>
-      </c>
-      <c r="C138" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+    </row>
+    <row r="139" spans="1:1">
       <c r="A139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>136</v>
       </c>
-      <c r="B139" t="s">
-        <v>175</v>
-      </c>
-      <c r="C139" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+    </row>
+    <row r="140" spans="1:1">
       <c r="A140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>137</v>
       </c>
-      <c r="B140" t="s">
-        <v>177</v>
-      </c>
-      <c r="C140" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>138</v>
+      </c>
+      <c r="B141" t="s">
+        <v>192</v>
+      </c>
+      <c r="C141" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>139</v>
       </c>
       <c r="B142" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C142" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143">
-        <f t="shared" ref="A143:A149" si="6">ROW()-3</f>
+        <f t="shared" ref="A143:A153" si="7">ROW()-3</f>
         <v>140</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="B143" t="s">
+        <v>196</v>
+      </c>
+      <c r="C143" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
       <c r="A144">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>141</v>
       </c>
-      <c r="B144" t="s">
-        <v>181</v>
-      </c>
-      <c r="C144" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>142</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
+      <c r="B145" t="s">
+        <v>198</v>
+      </c>
+      <c r="C145" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>143</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
+      <c r="B146" t="s">
+        <v>200</v>
+      </c>
+      <c r="C146" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>144</v>
+      </c>
+      <c r="B147" t="s">
+        <v>202</v>
+      </c>
+      <c r="C147" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>145</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:3">
       <c r="A149">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>146</v>
+      </c>
+      <c r="B149" t="s">
+        <v>204</v>
+      </c>
+      <c r="C149" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <f t="shared" si="7"/>
+        <v>147</v>
+      </c>
+      <c r="B150" t="s">
+        <v>206</v>
+      </c>
+      <c r="C150" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <f t="shared" si="7"/>
+        <v>148</v>
+      </c>
+      <c r="B151" t="s">
+        <v>208</v>
+      </c>
+      <c r="C151" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152">
+        <f t="shared" si="7"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="B153" t="s">
+        <v>210</v>
+      </c>
+      <c r="C153" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <f t="shared" ref="A154:A160" si="8">ROW()-3</f>
+        <v>151</v>
+      </c>
+      <c r="B154" t="s">
+        <v>212</v>
+      </c>
+      <c r="C154" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <f t="shared" si="8"/>
+        <v>152</v>
+      </c>
+      <c r="B155" t="s">
+        <v>214</v>
+      </c>
+      <c r="C155" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <f t="shared" si="8"/>
+        <v>153</v>
+      </c>
+      <c r="B156" t="s">
+        <v>216</v>
+      </c>
+      <c r="C156" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <f t="shared" ref="A157:A169" si="9">ROW()-3</f>
+        <v>154</v>
+      </c>
+      <c r="B157" t="s">
+        <v>218</v>
+      </c>
+      <c r="C157" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <f t="shared" si="9"/>
+        <v>155</v>
+      </c>
+      <c r="B158" t="s">
+        <v>220</v>
+      </c>
+      <c r="C158" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159">
+        <f t="shared" si="9"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <f t="shared" si="9"/>
+        <v>157</v>
+      </c>
+      <c r="B160" t="s">
+        <v>222</v>
+      </c>
+      <c r="C160" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <f t="shared" si="9"/>
+        <v>158</v>
+      </c>
+      <c r="B161" t="s">
+        <v>224</v>
+      </c>
+      <c r="C161" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <f t="shared" si="9"/>
+        <v>159</v>
+      </c>
+      <c r="B162" t="s">
+        <v>226</v>
+      </c>
+      <c r="C162" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <f t="shared" si="9"/>
+        <v>160</v>
+      </c>
+      <c r="B163" t="s">
+        <v>228</v>
+      </c>
+      <c r="C163" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164">
+        <f t="shared" si="9"/>
+        <v>161</v>
+      </c>
+      <c r="B164" t="s">
+        <v>230</v>
+      </c>
+      <c r="C164" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165">
+        <f t="shared" si="9"/>
+        <v>162</v>
+      </c>
+      <c r="B165" t="s">
+        <v>232</v>
+      </c>
+      <c r="C165" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166">
+        <f t="shared" si="9"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167">
+        <f t="shared" si="9"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <f t="shared" si="9"/>
+        <v>165</v>
+      </c>
+      <c r="B168" t="s">
+        <v>234</v>
+      </c>
+      <c r="C168" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <f t="shared" si="9"/>
+        <v>166</v>
+      </c>
+      <c r="B169" t="s">
+        <v>236</v>
+      </c>
+      <c r="C169" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <f t="shared" ref="A170:A172" si="10">ROW()-3</f>
+        <v>167</v>
+      </c>
+      <c r="B170" t="s">
+        <v>238</v>
+      </c>
+      <c r="C170" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <f t="shared" si="10"/>
+        <v>168</v>
+      </c>
+      <c r="B171" t="s">
+        <v>240</v>
+      </c>
+      <c r="C171" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <f t="shared" si="10"/>
+        <v>169</v>
+      </c>
+      <c r="B172" t="s">
+        <v>242</v>
+      </c>
+      <c r="C172" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <f t="shared" ref="A173:A178" si="11">ROW()-3</f>
+        <v>170</v>
+      </c>
+      <c r="B173" t="s">
+        <v>244</v>
+      </c>
+      <c r="C173" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <f t="shared" si="11"/>
+        <v>171</v>
+      </c>
+      <c r="B174" t="s">
+        <v>246</v>
+      </c>
+      <c r="C174" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <f t="shared" si="11"/>
+        <v>172</v>
+      </c>
+      <c r="B175" t="s">
+        <v>248</v>
+      </c>
+      <c r="C175" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <f t="shared" si="11"/>
+        <v>173</v>
+      </c>
+      <c r="B176" t="s">
+        <v>250</v>
+      </c>
+      <c r="C176" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177">
+        <f t="shared" si="11"/>
+        <v>174</v>
+      </c>
+      <c r="B177" t="s">
+        <v>252</v>
+      </c>
+      <c r="C177" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178">
+        <f t="shared" si="11"/>
+        <v>175</v>
+      </c>
+      <c r="B178" t="s">
+        <v>254</v>
+      </c>
+      <c r="C178" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179">
+        <f t="shared" ref="A179:A188" si="12">ROW()-3</f>
+        <v>176</v>
+      </c>
+      <c r="B179" t="s">
+        <v>256</v>
+      </c>
+      <c r="C179" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180">
+        <f t="shared" si="12"/>
+        <v>177</v>
+      </c>
+      <c r="B180" t="s">
+        <v>258</v>
+      </c>
+      <c r="C180" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181">
+        <f t="shared" si="12"/>
+        <v>178</v>
+      </c>
+      <c r="B181" t="s">
+        <v>260</v>
+      </c>
+      <c r="C181" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182">
+        <f t="shared" si="12"/>
+        <v>179</v>
+      </c>
+      <c r="B182" t="s">
+        <v>262</v>
+      </c>
+      <c r="C182" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183">
+        <f t="shared" si="12"/>
+        <v>180</v>
+      </c>
+      <c r="B183" t="s">
+        <v>264</v>
+      </c>
+      <c r="C183" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184">
+        <f t="shared" si="12"/>
+        <v>181</v>
+      </c>
+      <c r="B184" t="s">
+        <v>266</v>
+      </c>
+      <c r="C184" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185">
+        <f t="shared" si="12"/>
+        <v>182</v>
+      </c>
+      <c r="B185" t="s">
+        <v>268</v>
+      </c>
+      <c r="C185" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186">
+        <f t="shared" si="12"/>
+        <v>183</v>
+      </c>
+      <c r="B186" t="s">
+        <v>270</v>
+      </c>
+      <c r="C186" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187">
+        <f t="shared" si="12"/>
+        <v>184</v>
+      </c>
+      <c r="B187" t="s">
+        <v>272</v>
+      </c>
+      <c r="C187" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188">
+        <f t="shared" si="12"/>
+        <v>185</v>
+      </c>
+      <c r="B188" t="s">
+        <v>274</v>
+      </c>
+      <c r="C188" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189">
+        <f t="shared" ref="A189:A194" si="13">ROW()-3</f>
+        <v>186</v>
+      </c>
+      <c r="B189" t="s">
+        <v>276</v>
+      </c>
+      <c r="C189" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190">
+        <f t="shared" si="13"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191">
+        <f t="shared" si="13"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192">
+        <f t="shared" si="13"/>
+        <v>189</v>
+      </c>
+      <c r="B192" t="s">
+        <v>278</v>
+      </c>
+      <c r="C192" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193">
+        <f t="shared" si="13"/>
+        <v>190</v>
+      </c>
+      <c r="B193" t="s">
+        <v>280</v>
+      </c>
+      <c r="C193" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194">
+        <f t="shared" si="13"/>
+        <v>191</v>
+      </c>
+      <c r="B194" t="s">
+        <v>282</v>
+      </c>
+      <c r="C194" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195">
+        <f t="shared" ref="A195:A199" si="14">ROW()-3</f>
+        <v>192</v>
+      </c>
+      <c r="B195" t="s">
+        <v>284</v>
+      </c>
+      <c r="C195" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196">
+        <f t="shared" si="14"/>
+        <v>193</v>
+      </c>
+      <c r="B196" t="s">
+        <v>286</v>
+      </c>
+      <c r="C196" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197">
+        <f t="shared" si="14"/>
+        <v>194</v>
+      </c>
+      <c r="B197" t="s">
+        <v>288</v>
+      </c>
+      <c r="C197" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198">
+        <f t="shared" si="14"/>
+        <v>195</v>
+      </c>
+      <c r="B198" t="s">
+        <v>290</v>
+      </c>
+      <c r="C198" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199">
+        <f t="shared" si="14"/>
+        <v>196</v>
+      </c>
+      <c r="B199" t="s">
+        <v>292</v>
+      </c>
+      <c r="C199" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200">
+        <f t="shared" ref="A200:A213" si="15">ROW()-3</f>
+        <v>197</v>
+      </c>
+      <c r="B200" t="s">
+        <v>294</v>
+      </c>
+      <c r="C200" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201">
+        <f t="shared" si="15"/>
+        <v>198</v>
+      </c>
+      <c r="B201" t="s">
+        <v>296</v>
+      </c>
+      <c r="C201" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202">
+        <f t="shared" si="15"/>
+        <v>199</v>
+      </c>
+      <c r="B202" t="s">
+        <v>298</v>
+      </c>
+      <c r="C202" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203">
+        <f t="shared" si="15"/>
+        <v>200</v>
+      </c>
+      <c r="B203" t="s">
+        <v>300</v>
+      </c>
+      <c r="C203" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204">
+        <f t="shared" si="15"/>
+        <v>201</v>
+      </c>
+      <c r="B204" t="s">
+        <v>302</v>
+      </c>
+      <c r="C204" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205">
+        <f t="shared" si="15"/>
+        <v>202</v>
+      </c>
+      <c r="B205" t="s">
+        <v>304</v>
+      </c>
+      <c r="C205" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206">
+        <f t="shared" si="15"/>
+        <v>203</v>
+      </c>
+      <c r="B206" t="s">
+        <v>306</v>
+      </c>
+      <c r="C206" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207">
+        <f t="shared" si="15"/>
+        <v>204</v>
+      </c>
+      <c r="B207" t="s">
+        <v>308</v>
+      </c>
+      <c r="C207" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208">
+        <f t="shared" si="15"/>
+        <v>205</v>
+      </c>
+      <c r="B208" t="s">
+        <v>310</v>
+      </c>
+      <c r="C208" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209">
+        <f t="shared" si="15"/>
+        <v>206</v>
+      </c>
+      <c r="B209" t="s">
+        <v>312</v>
+      </c>
+      <c r="C209" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210">
+        <f t="shared" si="15"/>
+        <v>207</v>
+      </c>
+      <c r="B210" t="s">
+        <v>314</v>
+      </c>
+      <c r="C210" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211">
+        <f t="shared" si="15"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212">
+        <f t="shared" si="15"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213">
+        <f t="shared" si="15"/>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/mobi_client/mobi_client/mobi_config/excel/997_角色表情口型对应关系表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/997_角色表情口型对应关系表.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="319">
   <si>
     <t>ID</t>
   </si>
@@ -535,6 +535,12 @@
     <t>土山奥_开心_说话_循环_01</t>
   </si>
   <si>
+    <t>土山奥_开心_02</t>
+  </si>
+  <si>
+    <t>土山奥_开心_说话_循环_02</t>
+  </si>
+  <si>
     <t>土山奥_思考_01</t>
   </si>
   <si>
@@ -560,6 +566,12 @@
   </si>
   <si>
     <t>土山奥_忧伤_说话_循环_01</t>
+  </si>
+  <si>
+    <t>土山奥_忧伤_02</t>
+  </si>
+  <si>
+    <t>土山奥_忧伤_说话_循环_02</t>
   </si>
   <si>
     <t>土山奥_生气_01</t>
@@ -1968,10 +1980,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C213"/>
+  <dimension ref="A1:C215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="G176" sqref="G176"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="I142" sqref="I142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -3332,7 +3344,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <f t="shared" si="4"/>
+        <f>ROW()-3</f>
         <v>121</v>
       </c>
       <c r="B124" t="s">
@@ -3344,7 +3356,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <f t="shared" ref="A125:A134" si="5">ROW()-3</f>
+        <f>ROW()-3</f>
         <v>122</v>
       </c>
       <c r="B125" t="s">
@@ -3356,31 +3368,31 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <f t="shared" si="5"/>
+        <f>ROW()-3</f>
         <v>123</v>
       </c>
       <c r="B126" t="s">
         <v>169</v>
       </c>
       <c r="C126" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <f t="shared" si="5"/>
+        <f>ROW()-3</f>
         <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C127" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <f t="shared" si="5"/>
+        <f>ROW()-3</f>
         <v>125</v>
       </c>
       <c r="B128" t="s">
@@ -3392,7 +3404,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <f t="shared" si="5"/>
+        <f>ROW()-3</f>
         <v>126</v>
       </c>
       <c r="B129" t="s">
@@ -3404,7 +3416,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <f t="shared" si="5"/>
+        <f>ROW()-3</f>
         <v>127</v>
       </c>
       <c r="B130" t="s">
@@ -3416,7 +3428,7 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="A131:A136" si="5">ROW()-3</f>
         <v>128</v>
       </c>
       <c r="B131" t="s">
@@ -3464,7 +3476,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <f t="shared" ref="A135:A142" si="6">ROW()-3</f>
+        <f t="shared" si="5"/>
         <v>132</v>
       </c>
       <c r="B135" t="s">
@@ -3476,7 +3488,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>133</v>
       </c>
       <c r="B136" t="s">
@@ -3488,7 +3500,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="A137:A144" si="6">ROW()-3</f>
         <v>134</v>
       </c>
       <c r="B137" t="s">
@@ -3498,16 +3510,28 @@
         <v>191</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:3">
       <c r="A138">
         <f t="shared" si="6"/>
         <v>135</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
+      <c r="B138" t="s">
+        <v>192</v>
+      </c>
+      <c r="C138" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139">
         <f t="shared" si="6"/>
         <v>136</v>
+      </c>
+      <c r="B139" t="s">
+        <v>194</v>
+      </c>
+      <c r="C139" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="140" spans="1:1">
@@ -3516,33 +3540,21 @@
         <v>137</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:1">
       <c r="A141">
         <f t="shared" si="6"/>
         <v>138</v>
       </c>
-      <c r="B141" t="s">
-        <v>192</v>
-      </c>
-      <c r="C141" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+    </row>
+    <row r="142" spans="1:1">
       <c r="A142">
         <f t="shared" si="6"/>
         <v>139</v>
       </c>
-      <c r="B142" t="s">
-        <v>194</v>
-      </c>
-      <c r="C142" t="s">
-        <v>195</v>
-      </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <f t="shared" ref="A143:A153" si="7">ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>140</v>
       </c>
       <c r="B143" t="s">
@@ -3552,34 +3564,34 @@
         <v>197</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:3">
       <c r="A144">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>141</v>
+      </c>
+      <c r="B144" t="s">
+        <v>198</v>
+      </c>
+      <c r="C144" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="A145:A155" si="7">ROW()-3</f>
         <v>142</v>
       </c>
       <c r="B145" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C145" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
       <c r="A146">
         <f t="shared" si="7"/>
         <v>143</v>
-      </c>
-      <c r="B146" t="s">
-        <v>200</v>
-      </c>
-      <c r="C146" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3594,10 +3606,16 @@
         <v>203</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:3">
       <c r="A148">
         <f t="shared" si="7"/>
         <v>145</v>
+      </c>
+      <c r="B148" t="s">
+        <v>204</v>
+      </c>
+      <c r="C148" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3606,22 +3624,16 @@
         <v>146</v>
       </c>
       <c r="B149" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C149" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
       <c r="A150">
         <f t="shared" si="7"/>
         <v>147</v>
-      </c>
-      <c r="B150" t="s">
-        <v>206</v>
-      </c>
-      <c r="C150" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3636,10 +3648,16 @@
         <v>209</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:3">
       <c r="A152">
         <f t="shared" si="7"/>
         <v>149</v>
+      </c>
+      <c r="B152" t="s">
+        <v>210</v>
+      </c>
+      <c r="C152" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3648,27 +3666,21 @@
         <v>150</v>
       </c>
       <c r="B153" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C153" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
       <c r="A154">
-        <f t="shared" ref="A154:A160" si="8">ROW()-3</f>
+        <f t="shared" si="7"/>
         <v>151</v>
-      </c>
-      <c r="B154" t="s">
-        <v>212</v>
-      </c>
-      <c r="C154" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>152</v>
       </c>
       <c r="B155" t="s">
@@ -3680,7 +3692,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="A156:A162" si="8">ROW()-3</f>
         <v>153</v>
       </c>
       <c r="B156" t="s">
@@ -3692,7 +3704,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <f t="shared" ref="A157:A169" si="9">ROW()-3</f>
+        <f t="shared" si="8"/>
         <v>154</v>
       </c>
       <c r="B157" t="s">
@@ -3704,7 +3716,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>155</v>
       </c>
       <c r="B158" t="s">
@@ -3714,10 +3726,16 @@
         <v>221</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:3">
       <c r="A159">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="A159:A171" si="9">ROW()-3</f>
         <v>156</v>
+      </c>
+      <c r="B159" t="s">
+        <v>222</v>
+      </c>
+      <c r="C159" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3726,22 +3744,16 @@
         <v>157</v>
       </c>
       <c r="B160" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C160" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
       <c r="A161">
         <f t="shared" si="9"/>
         <v>158</v>
-      </c>
-      <c r="B161" t="s">
-        <v>224</v>
-      </c>
-      <c r="C161" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3792,45 +3804,45 @@
         <v>233</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:3">
       <c r="A166">
         <f t="shared" si="9"/>
         <v>163</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
+      <c r="B166" t="s">
+        <v>234</v>
+      </c>
+      <c r="C166" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167">
         <f t="shared" si="9"/>
         <v>164</v>
       </c>
-    </row>
-    <row r="168" spans="1:3">
+      <c r="B167" t="s">
+        <v>236</v>
+      </c>
+      <c r="C167" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
       <c r="A168">
         <f t="shared" si="9"/>
         <v>165</v>
       </c>
-      <c r="B168" t="s">
-        <v>234</v>
-      </c>
-      <c r="C168" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+    </row>
+    <row r="169" spans="1:1">
       <c r="A169">
         <f t="shared" si="9"/>
         <v>166</v>
       </c>
-      <c r="B169" t="s">
-        <v>236</v>
-      </c>
-      <c r="C169" t="s">
-        <v>237</v>
-      </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <f t="shared" ref="A170:A172" si="10">ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>167</v>
       </c>
       <c r="B170" t="s">
@@ -3842,7 +3854,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>168</v>
       </c>
       <c r="B171" t="s">
@@ -3854,7 +3866,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="A172:A174" si="10">ROW()-3</f>
         <v>169</v>
       </c>
       <c r="B172" t="s">
@@ -3866,7 +3878,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <f t="shared" ref="A173:A178" si="11">ROW()-3</f>
+        <f t="shared" si="10"/>
         <v>170</v>
       </c>
       <c r="B173" t="s">
@@ -3878,7 +3890,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>171</v>
       </c>
       <c r="B174" t="s">
@@ -3890,7 +3902,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="A175:A180" si="11">ROW()-3</f>
         <v>172</v>
       </c>
       <c r="B175" t="s">
@@ -3938,7 +3950,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <f t="shared" ref="A179:A188" si="12">ROW()-3</f>
+        <f t="shared" si="11"/>
         <v>176</v>
       </c>
       <c r="B179" t="s">
@@ -3950,7 +3962,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>177</v>
       </c>
       <c r="B180" t="s">
@@ -3962,7 +3974,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="A181:A190" si="12">ROW()-3</f>
         <v>178</v>
       </c>
       <c r="B181" t="s">
@@ -4058,7 +4070,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <f t="shared" ref="A189:A194" si="13">ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>186</v>
       </c>
       <c r="B189" t="s">
@@ -4068,40 +4080,40 @@
         <v>277</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:3">
       <c r="A190">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>187</v>
       </c>
-    </row>
-    <row r="191" spans="1:1">
+      <c r="B190" t="s">
+        <v>278</v>
+      </c>
+      <c r="C190" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="A191:A196" si="13">ROW()-3</f>
         <v>188</v>
       </c>
-    </row>
-    <row r="192" spans="1:3">
+      <c r="B191" t="s">
+        <v>280</v>
+      </c>
+      <c r="C191" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
       <c r="A192">
         <f t="shared" si="13"/>
         <v>189</v>
       </c>
-      <c r="B192" t="s">
-        <v>278</v>
-      </c>
-      <c r="C192" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
+    </row>
+    <row r="193" spans="1:1">
       <c r="A193">
         <f t="shared" si="13"/>
         <v>190</v>
-      </c>
-      <c r="B193" t="s">
-        <v>280</v>
-      </c>
-      <c r="C193" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4118,7 +4130,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <f t="shared" ref="A195:A199" si="14">ROW()-3</f>
+        <f t="shared" si="13"/>
         <v>192</v>
       </c>
       <c r="B195" t="s">
@@ -4130,7 +4142,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>193</v>
       </c>
       <c r="B196" t="s">
@@ -4142,7 +4154,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="A197:A201" si="14">ROW()-3</f>
         <v>194</v>
       </c>
       <c r="B197" t="s">
@@ -4178,7 +4190,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <f t="shared" ref="A200:A213" si="15">ROW()-3</f>
+        <f t="shared" si="14"/>
         <v>197</v>
       </c>
       <c r="B200" t="s">
@@ -4190,7 +4202,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>198</v>
       </c>
       <c r="B201" t="s">
@@ -4202,7 +4214,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="A202:A215" si="15">ROW()-3</f>
         <v>199</v>
       </c>
       <c r="B202" t="s">
@@ -4305,25 +4317,49 @@
         <v>314</v>
       </c>
       <c r="C210" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
       <c r="A211">
         <f t="shared" si="15"/>
         <v>208</v>
       </c>
-    </row>
-    <row r="212" spans="1:1">
+      <c r="B211" t="s">
+        <v>316</v>
+      </c>
+      <c r="C211" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212">
         <f t="shared" si="15"/>
         <v>209</v>
+      </c>
+      <c r="B212" t="s">
+        <v>318</v>
+      </c>
+      <c r="C212" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
         <f t="shared" si="15"/>
         <v>210</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214">
+        <f t="shared" si="15"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215">
+        <f t="shared" si="15"/>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/mobi_client/mobi_client/mobi_config/excel/997_角色表情口型对应关系表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/997_角色表情口型对应关系表.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="320">
   <si>
     <t>ID</t>
   </si>
@@ -497,6 +497,9 @@
   </si>
   <si>
     <t>杜衡_看文件_01</t>
+  </si>
+  <si>
+    <t>杜衡_看文件_02</t>
   </si>
   <si>
     <t>陈冰_待机_01</t>
@@ -1982,8 +1985,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="I142" sqref="I142"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -3233,10 +3236,16 @@
         <v>141</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:3">
       <c r="A112">
         <f t="shared" si="3"/>
         <v>109</v>
+      </c>
+      <c r="B112" t="s">
+        <v>153</v>
+      </c>
+      <c r="C112" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="113" spans="1:1">
@@ -3254,7 +3263,7 @@
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <f t="shared" ref="A115:A124" si="4">ROW()-3</f>
+        <f t="shared" ref="A115:A130" si="4">ROW()-3</f>
         <v>112</v>
       </c>
     </row>
@@ -3264,10 +3273,10 @@
         <v>113</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3276,10 +3285,10 @@
         <v>114</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118" spans="1:1">
@@ -3300,10 +3309,10 @@
         <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C120" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3312,10 +3321,10 @@
         <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C121" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3324,10 +3333,10 @@
         <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C122" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3336,94 +3345,94 @@
         <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C123" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <f>ROW()-3</f>
+        <f t="shared" si="4"/>
         <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C124" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <f>ROW()-3</f>
+        <f t="shared" si="4"/>
         <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C125" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <f>ROW()-3</f>
+        <f t="shared" si="4"/>
         <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C126" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <f>ROW()-3</f>
+        <f t="shared" si="4"/>
         <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C127" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <f>ROW()-3</f>
+        <f t="shared" si="4"/>
         <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C128" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <f>ROW()-3</f>
+        <f t="shared" si="4"/>
         <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C129" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <f>ROW()-3</f>
+        <f t="shared" si="4"/>
         <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C130" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3432,10 +3441,10 @@
         <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C131" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3444,10 +3453,10 @@
         <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C132" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3456,10 +3465,10 @@
         <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C133" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3468,10 +3477,10 @@
         <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C134" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3480,10 +3489,10 @@
         <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C135" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3492,10 +3501,10 @@
         <v>133</v>
       </c>
       <c r="B136" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C136" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3504,10 +3513,10 @@
         <v>134</v>
       </c>
       <c r="B137" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C137" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3516,10 +3525,10 @@
         <v>135</v>
       </c>
       <c r="B138" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C138" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3528,10 +3537,10 @@
         <v>136</v>
       </c>
       <c r="B139" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C139" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="140" spans="1:1">
@@ -3558,10 +3567,10 @@
         <v>140</v>
       </c>
       <c r="B143" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C143" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3570,10 +3579,10 @@
         <v>141</v>
       </c>
       <c r="B144" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C144" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3582,10 +3591,10 @@
         <v>142</v>
       </c>
       <c r="B145" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C145" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="146" spans="1:1">
@@ -3600,10 +3609,10 @@
         <v>144</v>
       </c>
       <c r="B147" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C147" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3612,10 +3621,10 @@
         <v>145</v>
       </c>
       <c r="B148" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C148" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3624,10 +3633,10 @@
         <v>146</v>
       </c>
       <c r="B149" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C149" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="150" spans="1:1">
@@ -3642,10 +3651,10 @@
         <v>148</v>
       </c>
       <c r="B151" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C151" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3654,10 +3663,10 @@
         <v>149</v>
       </c>
       <c r="B152" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C152" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3666,10 +3675,10 @@
         <v>150</v>
       </c>
       <c r="B153" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C153" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="154" spans="1:1">
@@ -3684,10 +3693,10 @@
         <v>152</v>
       </c>
       <c r="B155" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C155" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3696,10 +3705,10 @@
         <v>153</v>
       </c>
       <c r="B156" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C156" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3708,10 +3717,10 @@
         <v>154</v>
       </c>
       <c r="B157" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C157" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3720,10 +3729,10 @@
         <v>155</v>
       </c>
       <c r="B158" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C158" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3732,10 +3741,10 @@
         <v>156</v>
       </c>
       <c r="B159" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C159" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3744,10 +3753,10 @@
         <v>157</v>
       </c>
       <c r="B160" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C160" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="161" spans="1:1">
@@ -3762,10 +3771,10 @@
         <v>159</v>
       </c>
       <c r="B162" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C162" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3774,10 +3783,10 @@
         <v>160</v>
       </c>
       <c r="B163" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C163" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3786,10 +3795,10 @@
         <v>161</v>
       </c>
       <c r="B164" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C164" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3798,10 +3807,10 @@
         <v>162</v>
       </c>
       <c r="B165" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C165" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3810,10 +3819,10 @@
         <v>163</v>
       </c>
       <c r="B166" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C166" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3822,10 +3831,10 @@
         <v>164</v>
       </c>
       <c r="B167" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C167" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="168" spans="1:1">
@@ -3846,10 +3855,10 @@
         <v>167</v>
       </c>
       <c r="B170" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C170" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3858,10 +3867,10 @@
         <v>168</v>
       </c>
       <c r="B171" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C171" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3870,10 +3879,10 @@
         <v>169</v>
       </c>
       <c r="B172" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C172" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3882,10 +3891,10 @@
         <v>170</v>
       </c>
       <c r="B173" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C173" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3894,10 +3903,10 @@
         <v>171</v>
       </c>
       <c r="B174" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C174" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3906,10 +3915,10 @@
         <v>172</v>
       </c>
       <c r="B175" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C175" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3918,10 +3927,10 @@
         <v>173</v>
       </c>
       <c r="B176" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C176" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3930,10 +3939,10 @@
         <v>174</v>
       </c>
       <c r="B177" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C177" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3942,10 +3951,10 @@
         <v>175</v>
       </c>
       <c r="B178" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C178" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3954,10 +3963,10 @@
         <v>176</v>
       </c>
       <c r="B179" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C179" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3966,10 +3975,10 @@
         <v>177</v>
       </c>
       <c r="B180" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C180" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3978,10 +3987,10 @@
         <v>178</v>
       </c>
       <c r="B181" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C181" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3990,10 +3999,10 @@
         <v>179</v>
       </c>
       <c r="B182" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C182" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4002,10 +4011,10 @@
         <v>180</v>
       </c>
       <c r="B183" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C183" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -4014,10 +4023,10 @@
         <v>181</v>
       </c>
       <c r="B184" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C184" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4026,10 +4035,10 @@
         <v>182</v>
       </c>
       <c r="B185" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C185" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4038,10 +4047,10 @@
         <v>183</v>
       </c>
       <c r="B186" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C186" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -4050,10 +4059,10 @@
         <v>184</v>
       </c>
       <c r="B187" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C187" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4062,10 +4071,10 @@
         <v>185</v>
       </c>
       <c r="B188" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C188" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4074,10 +4083,10 @@
         <v>186</v>
       </c>
       <c r="B189" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C189" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4086,10 +4095,10 @@
         <v>187</v>
       </c>
       <c r="B190" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C190" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4098,10 +4107,10 @@
         <v>188</v>
       </c>
       <c r="B191" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C191" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="192" spans="1:1">
@@ -4122,10 +4131,10 @@
         <v>191</v>
       </c>
       <c r="B194" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C194" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4134,10 +4143,10 @@
         <v>192</v>
       </c>
       <c r="B195" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C195" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4146,10 +4155,10 @@
         <v>193</v>
       </c>
       <c r="B196" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C196" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4158,10 +4167,10 @@
         <v>194</v>
       </c>
       <c r="B197" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C197" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4170,10 +4179,10 @@
         <v>195</v>
       </c>
       <c r="B198" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C198" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4182,10 +4191,10 @@
         <v>196</v>
       </c>
       <c r="B199" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C199" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4194,10 +4203,10 @@
         <v>197</v>
       </c>
       <c r="B200" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C200" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4206,10 +4215,10 @@
         <v>198</v>
       </c>
       <c r="B201" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C201" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4218,10 +4227,10 @@
         <v>199</v>
       </c>
       <c r="B202" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C202" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4230,10 +4239,10 @@
         <v>200</v>
       </c>
       <c r="B203" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C203" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4242,10 +4251,10 @@
         <v>201</v>
       </c>
       <c r="B204" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C204" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4254,10 +4263,10 @@
         <v>202</v>
       </c>
       <c r="B205" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C205" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4266,10 +4275,10 @@
         <v>203</v>
       </c>
       <c r="B206" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C206" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4278,10 +4287,10 @@
         <v>204</v>
       </c>
       <c r="B207" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C207" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4290,10 +4299,10 @@
         <v>205</v>
       </c>
       <c r="B208" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C208" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4302,10 +4311,10 @@
         <v>206</v>
       </c>
       <c r="B209" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C209" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4314,10 +4323,10 @@
         <v>207</v>
       </c>
       <c r="B210" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C210" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4326,10 +4335,10 @@
         <v>208</v>
       </c>
       <c r="B211" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C211" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4338,10 +4347,10 @@
         <v>209</v>
       </c>
       <c r="B212" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C212" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="213" spans="1:1">
